--- a/deployment/Omaha_Cal_Info_GS03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GS03FLMA_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1005" windowWidth="20265" windowHeight="10875"/>
+    <workbookView xWindow="1200" yWindow="1005" windowWidth="20265" windowHeight="10875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="108">
   <si>
     <t>Ref Des</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>OL000036</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG046</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG047</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1303,7 +1309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1629,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3249,9 +3255,9 @@
       <c r="G64" s="10"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>87</v>
@@ -3281,9 +3287,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>63</v>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B66" t="s">
         <v>87</v>
@@ -3307,9 +3313,9 @@
         <v>-54.125633333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>63</v>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B67" t="s">
         <v>87</v>
@@ -3333,9 +3339,9 @@
         <v>-89.552933333333328</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>63</v>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B68" t="s">
         <v>87</v>
@@ -3359,7 +3365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -3369,9 +3375,9 @@
       <c r="G69" s="10"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
         <v>87</v>
@@ -3401,9 +3407,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>64</v>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B71" t="s">
         <v>87</v>
@@ -3427,9 +3433,9 @@
         <v>-54.125633333333333</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>64</v>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B72" t="s">
         <v>87</v>
@@ -3453,9 +3459,9 @@
         <v>-89.552933333333328</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>64</v>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
@@ -3479,7 +3485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -3489,7 +3495,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>65</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>65</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>-54.125633333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>65</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>-89.552933333333328</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>65</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -3609,7 +3615,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>66</v>
       </c>
@@ -3640,6 +3646,7 @@
       <c r="J80" s="1">
         <v>748</v>
       </c>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
